--- a/data/pca/factorExposure/factorExposure_2012-03-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01472496239745964</v>
+        <v>0.01480668809627351</v>
       </c>
       <c r="C2">
-        <v>-0.03205660125371593</v>
+        <v>0.02681527205578897</v>
       </c>
       <c r="D2">
-        <v>0.001388916517177801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.00353259820886965</v>
+      </c>
+      <c r="E2">
+        <v>0.01042012579339799</v>
+      </c>
+      <c r="F2">
+        <v>0.01261731708788933</v>
+      </c>
+      <c r="G2">
+        <v>0.01658998500575656</v>
+      </c>
+      <c r="H2">
+        <v>-0.05102260339857027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07349092352037477</v>
+        <v>0.08762504842097328</v>
       </c>
       <c r="C4">
-        <v>-0.05225813698561545</v>
+        <v>0.03808114364481883</v>
       </c>
       <c r="D4">
-        <v>-0.08222688289339536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06542174899085992</v>
+      </c>
+      <c r="E4">
+        <v>0.01462208286314616</v>
+      </c>
+      <c r="F4">
+        <v>0.0306881359687972</v>
+      </c>
+      <c r="G4">
+        <v>0.00281278178232419</v>
+      </c>
+      <c r="H4">
+        <v>0.04079305642720439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1078024216394836</v>
+        <v>0.1196334522521216</v>
       </c>
       <c r="C6">
-        <v>-0.05565996010974208</v>
+        <v>0.03454378802157102</v>
       </c>
       <c r="D6">
-        <v>0.005137557467054993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01053838599559082</v>
+      </c>
+      <c r="E6">
+        <v>-0.005220854390628182</v>
+      </c>
+      <c r="F6">
+        <v>0.05387076520541838</v>
+      </c>
+      <c r="G6">
+        <v>0.03362716663903611</v>
+      </c>
+      <c r="H6">
+        <v>-0.1065248863547592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04933686015838751</v>
+        <v>0.06382771743820495</v>
       </c>
       <c r="C7">
-        <v>-0.02887721357860644</v>
+        <v>0.02068447991291752</v>
       </c>
       <c r="D7">
-        <v>-0.04535097354577138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0454864010010429</v>
+      </c>
+      <c r="E7">
+        <v>0.03573153820509943</v>
+      </c>
+      <c r="F7">
+        <v>0.03451266785160499</v>
+      </c>
+      <c r="G7">
+        <v>-0.03701376801005749</v>
+      </c>
+      <c r="H7">
+        <v>0.004243747188192331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03704080036499534</v>
+        <v>0.04035050822618217</v>
       </c>
       <c r="C8">
-        <v>-0.01117177182626487</v>
+        <v>0.006798665046288521</v>
       </c>
       <c r="D8">
-        <v>-0.05333637549051825</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0208879009931969</v>
+      </c>
+      <c r="E8">
+        <v>0.03501390540818143</v>
+      </c>
+      <c r="F8">
+        <v>0.04989192375244696</v>
+      </c>
+      <c r="G8">
+        <v>0.05673647481204847</v>
+      </c>
+      <c r="H8">
+        <v>-0.004066664681957662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0666841222568723</v>
+        <v>0.07878632345189174</v>
       </c>
       <c r="C9">
-        <v>-0.04221854519518934</v>
+        <v>0.02852251522799476</v>
       </c>
       <c r="D9">
-        <v>-0.070586332987188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06213669526461237</v>
+      </c>
+      <c r="E9">
+        <v>0.03710493497518467</v>
+      </c>
+      <c r="F9">
+        <v>0.03260774672840993</v>
+      </c>
+      <c r="G9">
+        <v>0.007865631283343858</v>
+      </c>
+      <c r="H9">
+        <v>0.0457170938363953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02976429918595889</v>
+        <v>0.03459984358224254</v>
       </c>
       <c r="C10">
-        <v>-0.03417183860855181</v>
+        <v>0.04213953616836</v>
       </c>
       <c r="D10">
-        <v>0.1822305234688467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1735774778307217</v>
+      </c>
+      <c r="E10">
+        <v>0.0460066012453797</v>
+      </c>
+      <c r="F10">
+        <v>0.04873552765939512</v>
+      </c>
+      <c r="G10">
+        <v>-0.02694402367290566</v>
+      </c>
+      <c r="H10">
+        <v>-0.05050240228260667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06956196326310453</v>
+        <v>0.07587537897551844</v>
       </c>
       <c r="C11">
-        <v>-0.04763162003922478</v>
+        <v>0.02820395267543128</v>
       </c>
       <c r="D11">
-        <v>-0.05563617272513471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06266680482360536</v>
+      </c>
+      <c r="E11">
+        <v>-0.00260136069696611</v>
+      </c>
+      <c r="F11">
+        <v>0.0271620649309125</v>
+      </c>
+      <c r="G11">
+        <v>-0.006516215148247836</v>
+      </c>
+      <c r="H11">
+        <v>0.08577780352963237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05809784308847742</v>
+        <v>0.06707460998544275</v>
       </c>
       <c r="C12">
-        <v>-0.05241072810362225</v>
+        <v>0.03717531185621508</v>
       </c>
       <c r="D12">
-        <v>-0.04121781155475345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04777422391592762</v>
+      </c>
+      <c r="E12">
+        <v>0.01330790287993709</v>
+      </c>
+      <c r="F12">
+        <v>0.01939034817666994</v>
+      </c>
+      <c r="G12">
+        <v>-0.000304440306787815</v>
+      </c>
+      <c r="H12">
+        <v>0.04414081064201318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06084112683785851</v>
+        <v>0.06539845415648871</v>
       </c>
       <c r="C13">
-        <v>-0.04063321173223446</v>
+        <v>0.02560843587686309</v>
       </c>
       <c r="D13">
-        <v>-0.06041151671894244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04156513013668645</v>
+      </c>
+      <c r="E13">
+        <v>0.01477565040211877</v>
+      </c>
+      <c r="F13">
+        <v>0.003465897925167646</v>
+      </c>
+      <c r="G13">
+        <v>-0.01134677557559528</v>
+      </c>
+      <c r="H13">
+        <v>0.03990901761984001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03370699033584622</v>
+        <v>0.04118812726879373</v>
       </c>
       <c r="C14">
-        <v>-0.03211624631181612</v>
+        <v>0.02784079512073696</v>
       </c>
       <c r="D14">
-        <v>-0.0004161883053752165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.006654476840609934</v>
+      </c>
+      <c r="E14">
+        <v>0.03289388331348411</v>
+      </c>
+      <c r="F14">
+        <v>0.01227988335608892</v>
+      </c>
+      <c r="G14">
+        <v>0.003704353638867681</v>
+      </c>
+      <c r="H14">
+        <v>0.05715048160477873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03930244882382356</v>
+        <v>0.03945520235439211</v>
       </c>
       <c r="C15">
-        <v>-0.01091275903410453</v>
+        <v>0.003107673248935132</v>
       </c>
       <c r="D15">
-        <v>-0.01749997400858696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.003888348513420143</v>
+      </c>
+      <c r="E15">
+        <v>0.04150111459895501</v>
+      </c>
+      <c r="F15">
+        <v>-0.006287756086191261</v>
+      </c>
+      <c r="G15">
+        <v>0.02453080860070333</v>
+      </c>
+      <c r="H15">
+        <v>0.03724884524544469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06051784216531048</v>
+        <v>0.07013850054334245</v>
       </c>
       <c r="C16">
-        <v>-0.04354920894216241</v>
+        <v>0.02888043024056646</v>
       </c>
       <c r="D16">
-        <v>-0.04483179558300582</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06188158878100622</v>
+      </c>
+      <c r="E16">
+        <v>0.006210960534523838</v>
+      </c>
+      <c r="F16">
+        <v>0.02424048305431681</v>
+      </c>
+      <c r="G16">
+        <v>-0.004916503509189984</v>
+      </c>
+      <c r="H16">
+        <v>0.0519214768170388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06328849781809347</v>
+        <v>0.06289210386137935</v>
       </c>
       <c r="C20">
-        <v>-0.03078968401620499</v>
+        <v>0.01294064178798481</v>
       </c>
       <c r="D20">
-        <v>-0.0511120793401651</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04087336612512195</v>
+      </c>
+      <c r="E20">
+        <v>0.03312281202643856</v>
+      </c>
+      <c r="F20">
+        <v>0.01661508895266652</v>
+      </c>
+      <c r="G20">
+        <v>0.009459708699283585</v>
+      </c>
+      <c r="H20">
+        <v>0.04316336370832149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02366729726037608</v>
+        <v>0.02420394786733972</v>
       </c>
       <c r="C21">
-        <v>0.002807529864461209</v>
+        <v>-0.01038275435552501</v>
       </c>
       <c r="D21">
-        <v>-0.02417067067038604</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02798399124060035</v>
+      </c>
+      <c r="E21">
+        <v>0.04258619690006672</v>
+      </c>
+      <c r="F21">
+        <v>-0.01320484773792185</v>
+      </c>
+      <c r="G21">
+        <v>0.009404724798563894</v>
+      </c>
+      <c r="H21">
+        <v>-0.04876753062434856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07800006591885003</v>
+        <v>0.07266702495126809</v>
       </c>
       <c r="C22">
-        <v>-0.06141846244054772</v>
+        <v>0.04007261352142336</v>
       </c>
       <c r="D22">
-        <v>-0.1018764649087851</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.06771162419445552</v>
+      </c>
+      <c r="E22">
+        <v>0.5708338590402156</v>
+      </c>
+      <c r="F22">
+        <v>-0.2245579480720476</v>
+      </c>
+      <c r="G22">
+        <v>-0.06578836270673473</v>
+      </c>
+      <c r="H22">
+        <v>-0.1590161207603503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07897213866693552</v>
+        <v>0.07330175744568164</v>
       </c>
       <c r="C23">
-        <v>-0.06033095989904665</v>
+        <v>0.03876541655408041</v>
       </c>
       <c r="D23">
-        <v>-0.1034707150918179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.06857812774499059</v>
+      </c>
+      <c r="E23">
+        <v>0.5702219846907168</v>
+      </c>
+      <c r="F23">
+        <v>-0.223231818812523</v>
+      </c>
+      <c r="G23">
+        <v>-0.06444227056394214</v>
+      </c>
+      <c r="H23">
+        <v>-0.154051756329788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07103206806038476</v>
+        <v>0.07947684190530786</v>
       </c>
       <c r="C24">
-        <v>-0.05222448535160827</v>
+        <v>0.03418022000929286</v>
       </c>
       <c r="D24">
-        <v>-0.05771351590084207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0600703602274347</v>
+      </c>
+      <c r="E24">
+        <v>0.01582856240296875</v>
+      </c>
+      <c r="F24">
+        <v>0.03427206039294079</v>
+      </c>
+      <c r="G24">
+        <v>0.009305581017785123</v>
+      </c>
+      <c r="H24">
+        <v>0.05742928972393262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07080692923538529</v>
+        <v>0.07749896481410322</v>
       </c>
       <c r="C25">
-        <v>-0.05721180309402434</v>
+        <v>0.03873838965888603</v>
       </c>
       <c r="D25">
-        <v>-0.06549349622214268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05224258406609163</v>
+      </c>
+      <c r="E25">
+        <v>0.01986732254468719</v>
+      </c>
+      <c r="F25">
+        <v>0.02400857896277004</v>
+      </c>
+      <c r="G25">
+        <v>0.01705365451197742</v>
+      </c>
+      <c r="H25">
+        <v>0.05915333660956485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04381954931574268</v>
+        <v>0.04653465643958742</v>
       </c>
       <c r="C26">
-        <v>-0.01036157145810305</v>
+        <v>0.002407574499209145</v>
       </c>
       <c r="D26">
-        <v>-0.01336468380354651</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01974149989689998</v>
+      </c>
+      <c r="E26">
+        <v>0.05410090677782466</v>
+      </c>
+      <c r="F26">
+        <v>0.02054789530183646</v>
+      </c>
+      <c r="G26">
+        <v>-0.009657453945969443</v>
+      </c>
+      <c r="H26">
+        <v>0.0502509843397013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05191261040891096</v>
+        <v>0.06143664358434432</v>
       </c>
       <c r="C28">
-        <v>-0.07517689633005999</v>
+        <v>0.08503270990104655</v>
       </c>
       <c r="D28">
-        <v>0.3148088022217765</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3079909852820518</v>
+      </c>
+      <c r="E28">
+        <v>0.02574699523106154</v>
+      </c>
+      <c r="F28">
+        <v>0.05548038482873703</v>
+      </c>
+      <c r="G28">
+        <v>0.03488172204329842</v>
+      </c>
+      <c r="H28">
+        <v>-0.03996538553734953</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03973643201119262</v>
+        <v>0.04796083208871203</v>
       </c>
       <c r="C29">
-        <v>-0.03124529210014906</v>
+        <v>0.02607539204366712</v>
       </c>
       <c r="D29">
-        <v>-0.003071587847444913</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.006008572946879773</v>
+      </c>
+      <c r="E29">
+        <v>0.05520078982986631</v>
+      </c>
+      <c r="F29">
+        <v>0.0005258790443560182</v>
+      </c>
+      <c r="G29">
+        <v>-0.01272199137523355</v>
+      </c>
+      <c r="H29">
+        <v>0.07810727829073713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.126505483406626</v>
+        <v>0.1323227977146076</v>
       </c>
       <c r="C30">
-        <v>-0.09627427322423676</v>
+        <v>0.06549811915632876</v>
       </c>
       <c r="D30">
-        <v>-0.1133747862402737</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06808093759978569</v>
+      </c>
+      <c r="E30">
+        <v>0.0835132370941299</v>
+      </c>
+      <c r="F30">
+        <v>-0.02089360053045533</v>
+      </c>
+      <c r="G30">
+        <v>0.07889414906682465</v>
+      </c>
+      <c r="H30">
+        <v>-0.04179900745310122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04170167179094583</v>
+        <v>0.04841741113060597</v>
       </c>
       <c r="C31">
-        <v>-0.02250124771395975</v>
+        <v>0.01500884741933227</v>
       </c>
       <c r="D31">
-        <v>-0.02833510887817812</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02678089982718878</v>
+      </c>
+      <c r="E31">
+        <v>0.02814818490486427</v>
+      </c>
+      <c r="F31">
+        <v>0.008551444066799063</v>
+      </c>
+      <c r="G31">
+        <v>-0.03135883158171516</v>
+      </c>
+      <c r="H31">
+        <v>0.06336373794196623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0368871196406943</v>
+        <v>0.03949295487387604</v>
       </c>
       <c r="C32">
-        <v>-0.02449072055482433</v>
+        <v>0.01861785764746172</v>
       </c>
       <c r="D32">
-        <v>-0.02799188063859218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01169440347638147</v>
+      </c>
+      <c r="E32">
+        <v>0.06982176702677845</v>
+      </c>
+      <c r="F32">
+        <v>-0.01847338977726107</v>
+      </c>
+      <c r="G32">
+        <v>0.02233993454798634</v>
+      </c>
+      <c r="H32">
+        <v>0.07221073649994357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08182370007320811</v>
+        <v>0.09499288649168149</v>
       </c>
       <c r="C33">
-        <v>-0.04410812059810822</v>
+        <v>0.0273063304190147</v>
       </c>
       <c r="D33">
-        <v>-0.06546028174057059</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04788204563791385</v>
+      </c>
+      <c r="E33">
+        <v>0.01481955621181536</v>
+      </c>
+      <c r="F33">
+        <v>0.002970043766167147</v>
+      </c>
+      <c r="G33">
+        <v>-0.008928492106002031</v>
+      </c>
+      <c r="H33">
+        <v>0.05785545002660639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05583637845088106</v>
+        <v>0.06210447508320311</v>
       </c>
       <c r="C34">
-        <v>-0.02887323706791098</v>
+        <v>0.01432495621580513</v>
       </c>
       <c r="D34">
-        <v>-0.05550296638445854</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05426308263002876</v>
+      </c>
+      <c r="E34">
+        <v>0.009157475484748795</v>
+      </c>
+      <c r="F34">
+        <v>0.01737755122710175</v>
+      </c>
+      <c r="G34">
+        <v>-0.0009042444290612696</v>
+      </c>
+      <c r="H34">
+        <v>0.05714071404707764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03686491333297224</v>
+        <v>0.03950433309863494</v>
       </c>
       <c r="C35">
-        <v>-0.009086128028184575</v>
+        <v>0.003571300841820409</v>
       </c>
       <c r="D35">
-        <v>-0.007008810850536213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.008865262757982811</v>
+      </c>
+      <c r="E35">
+        <v>0.01969421243170867</v>
+      </c>
+      <c r="F35">
+        <v>-0.01791493281013325</v>
+      </c>
+      <c r="G35">
+        <v>-0.01425242021909438</v>
+      </c>
+      <c r="H35">
+        <v>0.01811455401750835</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0206850324207704</v>
+        <v>0.02787647069553805</v>
       </c>
       <c r="C36">
-        <v>-0.01747259325119341</v>
+        <v>0.01379554665227112</v>
       </c>
       <c r="D36">
-        <v>-0.02118839452603011</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01540666225981584</v>
+      </c>
+      <c r="E36">
+        <v>0.04384095446493851</v>
+      </c>
+      <c r="F36">
+        <v>0.01248491792215577</v>
+      </c>
+      <c r="G36">
+        <v>-0.01089491890394204</v>
+      </c>
+      <c r="H36">
+        <v>0.04429197048702722</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03845418567531023</v>
+        <v>0.04359925097801655</v>
       </c>
       <c r="C38">
-        <v>-0.003516821087962362</v>
+        <v>-0.001124634905429391</v>
       </c>
       <c r="D38">
-        <v>-0.0192837894526613</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01831577658386502</v>
+      </c>
+      <c r="E38">
+        <v>0.05301694813804451</v>
+      </c>
+      <c r="F38">
+        <v>-0.01541720813777383</v>
+      </c>
+      <c r="G38">
+        <v>0.005482548227175523</v>
+      </c>
+      <c r="H38">
+        <v>0.03407749562054348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09123833877467581</v>
+        <v>0.1031916024807203</v>
       </c>
       <c r="C39">
-        <v>-0.07483830065429493</v>
+        <v>0.05299151667165811</v>
       </c>
       <c r="D39">
-        <v>-0.0568647229801975</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05834036262159185</v>
+      </c>
+      <c r="E39">
+        <v>-0.001225303763233389</v>
+      </c>
+      <c r="F39">
+        <v>0.004194828575236241</v>
+      </c>
+      <c r="G39">
+        <v>0.03030301724084195</v>
+      </c>
+      <c r="H39">
+        <v>0.04849612874199932</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07521809057753669</v>
+        <v>0.0718986638413755</v>
       </c>
       <c r="C40">
-        <v>-0.04241782047896836</v>
+        <v>0.02075670268228548</v>
       </c>
       <c r="D40">
-        <v>0.005517819643934494</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01058422840897137</v>
+      </c>
+      <c r="E40">
+        <v>0.02105877779597641</v>
+      </c>
+      <c r="F40">
+        <v>-0.05344534921055914</v>
+      </c>
+      <c r="G40">
+        <v>0.05821574605028067</v>
+      </c>
+      <c r="H40">
+        <v>-0.1066339470099328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04044509302567729</v>
+        <v>0.04318987621060692</v>
       </c>
       <c r="C41">
-        <v>-0.005794035739676196</v>
+        <v>-0.001826294407192336</v>
       </c>
       <c r="D41">
-        <v>-0.03922881398689425</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03545373789806372</v>
+      </c>
+      <c r="E41">
+        <v>0.005544786070670463</v>
+      </c>
+      <c r="F41">
+        <v>-0.01671164313468814</v>
+      </c>
+      <c r="G41">
+        <v>0.008321129045692544</v>
+      </c>
+      <c r="H41">
+        <v>0.03353777498500214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04666033852408159</v>
+        <v>0.05720605548061318</v>
       </c>
       <c r="C43">
-        <v>-0.02603674624379106</v>
+        <v>0.0177125773316252</v>
       </c>
       <c r="D43">
-        <v>-0.01918936615138365</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02636073096359411</v>
+      </c>
+      <c r="E43">
+        <v>0.0201347662931265</v>
+      </c>
+      <c r="F43">
+        <v>0.009287293621862246</v>
+      </c>
+      <c r="G43">
+        <v>-0.02118099164846695</v>
+      </c>
+      <c r="H43">
+        <v>0.05113150972773053</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09356771837709506</v>
+        <v>0.09548713457230691</v>
       </c>
       <c r="C44">
-        <v>-0.09392103985825991</v>
+        <v>0.06595658748823215</v>
       </c>
       <c r="D44">
-        <v>-0.08305954065250598</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.06020173968848599</v>
+      </c>
+      <c r="E44">
+        <v>0.09175185069823021</v>
+      </c>
+      <c r="F44">
+        <v>0.03801203869697658</v>
+      </c>
+      <c r="G44">
+        <v>0.0291805611659695</v>
+      </c>
+      <c r="H44">
+        <v>0.02083974892898145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02461780151595206</v>
+        <v>0.0331663270871428</v>
       </c>
       <c r="C46">
-        <v>-0.01457641155622814</v>
+        <v>0.01194653499269278</v>
       </c>
       <c r="D46">
-        <v>-0.02054099551742083</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03192573237335599</v>
+      </c>
+      <c r="E46">
+        <v>0.02956244495896322</v>
+      </c>
+      <c r="F46">
+        <v>0.01481908536875814</v>
+      </c>
+      <c r="G46">
+        <v>-0.004515920536490779</v>
+      </c>
+      <c r="H46">
+        <v>0.03813595070940767</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03021155345057147</v>
+        <v>0.03817225512490104</v>
       </c>
       <c r="C47">
-        <v>-0.02487907499036745</v>
+        <v>0.02032287612904552</v>
       </c>
       <c r="D47">
-        <v>-0.0106302781179873</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01001122957467243</v>
+      </c>
+      <c r="E47">
+        <v>0.05097664410378386</v>
+      </c>
+      <c r="F47">
+        <v>0.006579770710505741</v>
+      </c>
+      <c r="G47">
+        <v>-0.04407933972605065</v>
+      </c>
+      <c r="H47">
+        <v>0.02292482598468449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03127529484214558</v>
+        <v>0.03707609748253344</v>
       </c>
       <c r="C48">
-        <v>-0.01790682669904208</v>
+        <v>0.01174886023573344</v>
       </c>
       <c r="D48">
-        <v>-0.03089178046234634</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01934829783246498</v>
+      </c>
+      <c r="E48">
+        <v>0.04382370445979836</v>
+      </c>
+      <c r="F48">
+        <v>0.001013838835299553</v>
+      </c>
+      <c r="G48">
+        <v>0.01043613034696798</v>
+      </c>
+      <c r="H48">
+        <v>0.04060361532536261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1619272505242602</v>
+        <v>0.1905150036824513</v>
       </c>
       <c r="C49">
-        <v>-0.06314420894944024</v>
+        <v>0.03647519690561503</v>
       </c>
       <c r="D49">
-        <v>0.01971559527622737</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02738932707772282</v>
+      </c>
+      <c r="E49">
+        <v>-0.1500758701690726</v>
+      </c>
+      <c r="F49">
+        <v>0.07969679695284679</v>
+      </c>
+      <c r="G49">
+        <v>-0.04684119166075655</v>
+      </c>
+      <c r="H49">
+        <v>-0.2384850380431567</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03925667498411557</v>
+        <v>0.04585853549787185</v>
       </c>
       <c r="C50">
-        <v>-0.02662902928149154</v>
+        <v>0.01912988749601961</v>
       </c>
       <c r="D50">
-        <v>-0.03720065498837074</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03104437718786612</v>
+      </c>
+      <c r="E50">
+        <v>0.05120954698749561</v>
+      </c>
+      <c r="F50">
+        <v>0.009993170360976824</v>
+      </c>
+      <c r="G50">
+        <v>-0.02520011194653201</v>
+      </c>
+      <c r="H50">
+        <v>0.06100504639475583</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02496378856984929</v>
+        <v>0.02982439268580885</v>
       </c>
       <c r="C51">
-        <v>-0.008645405036770762</v>
+        <v>0.004405125804140479</v>
       </c>
       <c r="D51">
-        <v>-0.01540645753585522</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01331268081296379</v>
+      </c>
+      <c r="E51">
+        <v>0.01234271614639919</v>
+      </c>
+      <c r="F51">
+        <v>0.01932472417081369</v>
+      </c>
+      <c r="G51">
+        <v>-5.036927968385388e-05</v>
+      </c>
+      <c r="H51">
+        <v>-0.002968657794928742</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1511804137594979</v>
+        <v>0.1628648547987142</v>
       </c>
       <c r="C53">
-        <v>-0.08001570599127267</v>
+        <v>0.05277329201204132</v>
       </c>
       <c r="D53">
-        <v>-0.02392679410560866</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01855066239199279</v>
+      </c>
+      <c r="E53">
+        <v>-0.02689853654021155</v>
+      </c>
+      <c r="F53">
+        <v>0.01877379711812564</v>
+      </c>
+      <c r="G53">
+        <v>-0.02724306459074256</v>
+      </c>
+      <c r="H53">
+        <v>0.1764276382001247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05470066932746557</v>
+        <v>0.05742504295327442</v>
       </c>
       <c r="C54">
-        <v>-0.0268248660337956</v>
+        <v>0.01523260499722098</v>
       </c>
       <c r="D54">
-        <v>-0.02293523198066452</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01777867771029416</v>
+      </c>
+      <c r="E54">
+        <v>0.05154037550113403</v>
+      </c>
+      <c r="F54">
+        <v>0.004134903016346235</v>
+      </c>
+      <c r="G54">
+        <v>0.01009622788147247</v>
+      </c>
+      <c r="H54">
+        <v>0.04745140264532301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09885312695820719</v>
+        <v>0.1037438892600678</v>
       </c>
       <c r="C55">
-        <v>-0.05490434086647363</v>
+        <v>0.0346912942307725</v>
       </c>
       <c r="D55">
-        <v>-0.02476816690406696</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02206458471070297</v>
+      </c>
+      <c r="E55">
+        <v>0.01853245444430414</v>
+      </c>
+      <c r="F55">
+        <v>0.01583883251037162</v>
+      </c>
+      <c r="G55">
+        <v>-0.02032594695880619</v>
+      </c>
+      <c r="H55">
+        <v>0.1510700161868928</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1470162827819634</v>
+        <v>0.1612174559709287</v>
       </c>
       <c r="C56">
-        <v>-0.09164823025189031</v>
+        <v>0.06404308943069018</v>
       </c>
       <c r="D56">
-        <v>-0.01958873060368628</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01774268074954444</v>
+      </c>
+      <c r="E56">
+        <v>-0.02494319460245848</v>
+      </c>
+      <c r="F56">
+        <v>0.03834105948668697</v>
+      </c>
+      <c r="G56">
+        <v>-0.03820267758043735</v>
+      </c>
+      <c r="H56">
+        <v>0.176439700569832</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1277452102985977</v>
+        <v>0.09793204753696345</v>
       </c>
       <c r="C58">
-        <v>-0.008461918202316471</v>
+        <v>-0.03567033293271789</v>
       </c>
       <c r="D58">
-        <v>-0.02855071269365494</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.04101708585837301</v>
+      </c>
+      <c r="E58">
+        <v>0.1703634410098802</v>
+      </c>
+      <c r="F58">
+        <v>-0.01240833791220943</v>
+      </c>
+      <c r="G58">
+        <v>-0.02641744312291478</v>
+      </c>
+      <c r="H58">
+        <v>-0.2388524668648925</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1197972698114614</v>
+        <v>0.136468752410438</v>
       </c>
       <c r="C59">
-        <v>-0.07917298861252108</v>
+        <v>0.08460958315251625</v>
       </c>
       <c r="D59">
-        <v>0.3521769922568489</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3649566364186872</v>
+      </c>
+      <c r="E59">
+        <v>0.02394356225900561</v>
+      </c>
+      <c r="F59">
+        <v>0.01961174030324583</v>
+      </c>
+      <c r="G59">
+        <v>-0.02553422472681288</v>
+      </c>
+      <c r="H59">
+        <v>-0.002398741986647034</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2004980519743644</v>
+        <v>0.232199022288416</v>
       </c>
       <c r="C60">
-        <v>-0.1038945067512168</v>
+        <v>0.06865059962374377</v>
       </c>
       <c r="D60">
-        <v>-0.007189760425390592</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03836651586542415</v>
+      </c>
+      <c r="E60">
+        <v>-0.0947090176106266</v>
+      </c>
+      <c r="F60">
+        <v>0.06820838130782639</v>
+      </c>
+      <c r="G60">
+        <v>0.03005249502357349</v>
+      </c>
+      <c r="H60">
+        <v>-0.151454393678771</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07995409664862131</v>
+        <v>0.08922662800736096</v>
       </c>
       <c r="C61">
-        <v>-0.05398622076203797</v>
+        <v>0.03869139663438242</v>
       </c>
       <c r="D61">
-        <v>-0.04243256958231774</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0396737911021552</v>
+      </c>
+      <c r="E61">
+        <v>-0.003569042158063316</v>
+      </c>
+      <c r="F61">
+        <v>0.003354258061802756</v>
+      </c>
+      <c r="G61">
+        <v>-0.003969936972588308</v>
+      </c>
+      <c r="H61">
+        <v>0.06493289842936785</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1282959227497607</v>
+        <v>0.1399850724042644</v>
       </c>
       <c r="C62">
-        <v>-0.06619174266490988</v>
+        <v>0.04181033484299284</v>
       </c>
       <c r="D62">
-        <v>-0.03227205155584029</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03047195434929618</v>
+      </c>
+      <c r="E62">
+        <v>-0.06113520585818087</v>
+      </c>
+      <c r="F62">
+        <v>0.01685106201822918</v>
+      </c>
+      <c r="G62">
+        <v>0.004115573099712368</v>
+      </c>
+      <c r="H62">
+        <v>0.1990285203199431</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05043515544249436</v>
+        <v>0.04994631569050158</v>
       </c>
       <c r="C63">
-        <v>-0.02450800217496451</v>
+        <v>0.01254103770514376</v>
       </c>
       <c r="D63">
-        <v>-0.02252337493109124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02106283606936843</v>
+      </c>
+      <c r="E63">
+        <v>0.05307578233145936</v>
+      </c>
+      <c r="F63">
+        <v>-0.01503069461564776</v>
+      </c>
+      <c r="G63">
+        <v>0.01959498319936403</v>
+      </c>
+      <c r="H63">
+        <v>0.05738367088054287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1046001950880513</v>
+        <v>0.1089291952674575</v>
       </c>
       <c r="C64">
-        <v>-0.02424255824777958</v>
+        <v>0.004353025853891182</v>
       </c>
       <c r="D64">
-        <v>-0.06052379875807934</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04112035990553593</v>
+      </c>
+      <c r="E64">
+        <v>0.04701509796013417</v>
+      </c>
+      <c r="F64">
+        <v>0.04206306203027103</v>
+      </c>
+      <c r="G64">
+        <v>0.04497982071102802</v>
+      </c>
+      <c r="H64">
+        <v>0.06247506086327483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1222105974002314</v>
+        <v>0.1265930322427508</v>
       </c>
       <c r="C65">
-        <v>-0.06224699093847449</v>
+        <v>0.03914559623636724</v>
       </c>
       <c r="D65">
-        <v>0.01935508793387601</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.003029518399347514</v>
+      </c>
+      <c r="E65">
+        <v>0.01241766781023987</v>
+      </c>
+      <c r="F65">
+        <v>0.05374276316117899</v>
+      </c>
+      <c r="G65">
+        <v>0.06295948091966375</v>
+      </c>
+      <c r="H65">
+        <v>-0.1351324244145451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1432325523968898</v>
+        <v>0.1551205704901471</v>
       </c>
       <c r="C66">
-        <v>-0.08065771692085098</v>
+        <v>0.05010006505564461</v>
       </c>
       <c r="D66">
-        <v>-0.1104532451516463</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09341890212187694</v>
+      </c>
+      <c r="E66">
+        <v>-0.03206251059694829</v>
+      </c>
+      <c r="F66">
+        <v>0.01713724462270594</v>
+      </c>
+      <c r="G66">
+        <v>0.04089133207514103</v>
+      </c>
+      <c r="H66">
+        <v>0.1231135961612371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07060261499244878</v>
+        <v>0.08302184087391642</v>
       </c>
       <c r="C67">
-        <v>-0.01373012345698281</v>
+        <v>0.005131964185679305</v>
       </c>
       <c r="D67">
-        <v>-0.0249621051711946</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0321640356951001</v>
+      </c>
+      <c r="E67">
+        <v>0.02274436598177958</v>
+      </c>
+      <c r="F67">
+        <v>0.01526224631815514</v>
+      </c>
+      <c r="G67">
+        <v>-0.01326238392487323</v>
+      </c>
+      <c r="H67">
+        <v>0.03629297634148682</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05897925916701587</v>
+        <v>0.05712167068009266</v>
       </c>
       <c r="C68">
-        <v>-0.05063628689321287</v>
+        <v>0.05677515170447213</v>
       </c>
       <c r="D68">
-        <v>0.2523040334835578</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2693628775894242</v>
+      </c>
+      <c r="E68">
+        <v>0.03601372386040238</v>
+      </c>
+      <c r="F68">
+        <v>0.01536513135924049</v>
+      </c>
+      <c r="G68">
+        <v>-0.01523474520960445</v>
+      </c>
+      <c r="H68">
+        <v>0.003926587350879905</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05264389049484881</v>
+        <v>0.05337943786051689</v>
       </c>
       <c r="C69">
-        <v>-0.01852862783953547</v>
+        <v>0.006103225499749429</v>
       </c>
       <c r="D69">
-        <v>-0.01679368043043619</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01481035993404275</v>
+      </c>
+      <c r="E69">
+        <v>0.02505450607469372</v>
+      </c>
+      <c r="F69">
+        <v>-0.009527831092794632</v>
+      </c>
+      <c r="G69">
+        <v>-0.02280905595133685</v>
+      </c>
+      <c r="H69">
+        <v>0.04764328121767799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.0055544675523216</v>
+        <v>0.02720297425188494</v>
       </c>
       <c r="C70">
-        <v>0.005897214480871411</v>
+        <v>-0.0004057867771932545</v>
       </c>
       <c r="D70">
-        <v>0.000476459156477364</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.001853247513906698</v>
+      </c>
+      <c r="E70">
+        <v>-0.02488063297033298</v>
+      </c>
+      <c r="F70">
+        <v>0.02242962227824858</v>
+      </c>
+      <c r="G70">
+        <v>-0.02124291018533888</v>
+      </c>
+      <c r="H70">
+        <v>-0.03558432688840629</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0590695596419865</v>
+        <v>0.06009888330576594</v>
       </c>
       <c r="C71">
-        <v>-0.05119740699197051</v>
+        <v>0.06113482450644555</v>
       </c>
       <c r="D71">
-        <v>0.2948503327892057</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2957885112551276</v>
+      </c>
+      <c r="E71">
+        <v>0.03179161584102372</v>
+      </c>
+      <c r="F71">
+        <v>0.0435267108544052</v>
+      </c>
+      <c r="G71">
+        <v>-0.004322464089025453</v>
+      </c>
+      <c r="H71">
+        <v>0.009641816847100415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.140322322607133</v>
+        <v>0.1456744501132112</v>
       </c>
       <c r="C72">
-        <v>-0.06509984399403927</v>
+        <v>0.03592998530405694</v>
       </c>
       <c r="D72">
-        <v>-0.0006016003344040612</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007536802138877143</v>
+      </c>
+      <c r="E72">
+        <v>-0.1098355791277547</v>
+      </c>
+      <c r="F72">
+        <v>-0.1583621883854675</v>
+      </c>
+      <c r="G72">
+        <v>0.121942560664477</v>
+      </c>
+      <c r="H72">
+        <v>0.02250419034135961</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2731247150219706</v>
+        <v>0.2881400074429107</v>
       </c>
       <c r="C73">
-        <v>-0.1138490099327268</v>
+        <v>0.04829251288045006</v>
       </c>
       <c r="D73">
-        <v>-0.04392608153617824</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09690454654527705</v>
+      </c>
+      <c r="E73">
+        <v>-0.2141036985759375</v>
+      </c>
+      <c r="F73">
+        <v>0.1260629689528794</v>
+      </c>
+      <c r="G73">
+        <v>-0.1260905746665393</v>
+      </c>
+      <c r="H73">
+        <v>-0.4904599499359835</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07868802154597827</v>
+        <v>0.09251419460628639</v>
       </c>
       <c r="C74">
-        <v>-0.07692212519389997</v>
+        <v>0.06011271677696436</v>
       </c>
       <c r="D74">
-        <v>-0.01400111171003485</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02852841618982346</v>
+      </c>
+      <c r="E74">
+        <v>-0.005957665813085714</v>
+      </c>
+      <c r="F74">
+        <v>-0.001428374940605593</v>
+      </c>
+      <c r="G74">
+        <v>-0.06316670098199893</v>
+      </c>
+      <c r="H74">
+        <v>0.1167242666613538</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.0940307250295091</v>
+        <v>0.09971234056724548</v>
       </c>
       <c r="C75">
-        <v>-0.05508286585613408</v>
+        <v>0.02970790748888813</v>
       </c>
       <c r="D75">
-        <v>-0.007859929791948866</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01505401003467133</v>
+      </c>
+      <c r="E75">
+        <v>0.007851581760761502</v>
+      </c>
+      <c r="F75">
+        <v>0.02567117447814903</v>
+      </c>
+      <c r="G75">
+        <v>-0.02793258644594383</v>
+      </c>
+      <c r="H75">
+        <v>0.1150378431695271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1302188064640631</v>
+        <v>0.1410067242899438</v>
       </c>
       <c r="C76">
-        <v>-0.08472964914951928</v>
+        <v>0.0577486473892968</v>
       </c>
       <c r="D76">
-        <v>-0.05289896206927529</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05056605030704447</v>
+      </c>
+      <c r="E76">
+        <v>0.02770774699992242</v>
+      </c>
+      <c r="F76">
+        <v>0.04447127987060135</v>
+      </c>
+      <c r="G76">
+        <v>-0.02703325964933032</v>
+      </c>
+      <c r="H76">
+        <v>0.1998961492279599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1125274487602746</v>
+        <v>0.1077626091552489</v>
       </c>
       <c r="C77">
-        <v>-0.02104906601284463</v>
+        <v>-0.007642092909515539</v>
       </c>
       <c r="D77">
-        <v>-0.05171946568552448</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02078949068106925</v>
+      </c>
+      <c r="E77">
+        <v>0.03885873556093417</v>
+      </c>
+      <c r="F77">
+        <v>0.1119251367856025</v>
+      </c>
+      <c r="G77">
+        <v>0.8945891860974127</v>
+      </c>
+      <c r="H77">
+        <v>-0.0597745984884153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0997079683355727</v>
+        <v>0.1389574313501408</v>
       </c>
       <c r="C78">
-        <v>-0.04118689679529484</v>
+        <v>0.03392544133885627</v>
       </c>
       <c r="D78">
-        <v>-0.08264961169705684</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0853664858563684</v>
+      </c>
+      <c r="E78">
+        <v>0.05666235323975815</v>
+      </c>
+      <c r="F78">
+        <v>0.03584265421901478</v>
+      </c>
+      <c r="G78">
+        <v>0.08788819242363288</v>
+      </c>
+      <c r="H78">
+        <v>-0.04368987133788888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1457538949714156</v>
+        <v>0.1516139261541361</v>
       </c>
       <c r="C79">
-        <v>-0.0766918410126706</v>
+        <v>0.04384645309664126</v>
       </c>
       <c r="D79">
-        <v>-0.02943585739480561</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02725287030973506</v>
+      </c>
+      <c r="E79">
+        <v>-0.01178396419050988</v>
+      </c>
+      <c r="F79">
+        <v>0.01910886985898655</v>
+      </c>
+      <c r="G79">
+        <v>-0.04453937208459099</v>
+      </c>
+      <c r="H79">
+        <v>0.1733363224119269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04587436187534785</v>
+        <v>0.04326052239645743</v>
       </c>
       <c r="C80">
-        <v>-0.01563872023487019</v>
+        <v>0.00556301851214796</v>
       </c>
       <c r="D80">
-        <v>-0.029124878792517</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01938775672191408</v>
+      </c>
+      <c r="E80">
+        <v>-0.008628092205256434</v>
+      </c>
+      <c r="F80">
+        <v>-0.006088190219247541</v>
+      </c>
+      <c r="G80">
+        <v>-0.03555455605728535</v>
+      </c>
+      <c r="H80">
+        <v>0.03251202179439298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1146695100107511</v>
+        <v>0.1203370647596358</v>
       </c>
       <c r="C81">
-        <v>-0.06488757840069098</v>
+        <v>0.03855899991769975</v>
       </c>
       <c r="D81">
-        <v>-0.03047744099421842</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02347936614168358</v>
+      </c>
+      <c r="E81">
+        <v>0.02461009068116433</v>
+      </c>
+      <c r="F81">
+        <v>0.01440381025619192</v>
+      </c>
+      <c r="G81">
+        <v>-0.06685722118438849</v>
+      </c>
+      <c r="H81">
+        <v>0.1468466307985315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1302616725557818</v>
+        <v>0.1322509439635017</v>
       </c>
       <c r="C82">
-        <v>-0.0810636054614408</v>
+        <v>0.0521424459907648</v>
       </c>
       <c r="D82">
-        <v>-0.01668183686363291</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02652734607781253</v>
+      </c>
+      <c r="E82">
+        <v>-0.01442301388697088</v>
+      </c>
+      <c r="F82">
+        <v>0.05787762132047649</v>
+      </c>
+      <c r="G82">
+        <v>-0.05939663197128894</v>
+      </c>
+      <c r="H82">
+        <v>0.2074751661907703</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07805828541223202</v>
+        <v>0.08805876979911838</v>
       </c>
       <c r="C83">
-        <v>0.006725724754740139</v>
+        <v>-0.02221003429287884</v>
       </c>
       <c r="D83">
-        <v>-0.02627273036814914</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03391847540562822</v>
+      </c>
+      <c r="E83">
+        <v>0.02503875133851279</v>
+      </c>
+      <c r="F83">
+        <v>0.05318207596285928</v>
+      </c>
+      <c r="G83">
+        <v>-0.07417252992032074</v>
+      </c>
+      <c r="H83">
+        <v>-0.06794494950746724</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02640985184420767</v>
+        <v>0.036076012380275</v>
       </c>
       <c r="C84">
-        <v>-0.02617254203679053</v>
+        <v>0.02155168456330681</v>
       </c>
       <c r="D84">
-        <v>-0.03214180398638023</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03136693590109128</v>
+      </c>
+      <c r="E84">
+        <v>0.02317625074175606</v>
+      </c>
+      <c r="F84">
+        <v>-0.05193564639818799</v>
+      </c>
+      <c r="G84">
+        <v>-0.06342408709608104</v>
+      </c>
+      <c r="H84">
+        <v>-0.002436394088813832</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.119843944315283</v>
+        <v>0.1206180766684446</v>
       </c>
       <c r="C85">
-        <v>-0.05813887477908815</v>
+        <v>0.02889137755271</v>
       </c>
       <c r="D85">
-        <v>-0.01817083111211283</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02347617476370856</v>
+      </c>
+      <c r="E85">
+        <v>0.02482607149017136</v>
+      </c>
+      <c r="F85">
+        <v>0.03952803918663893</v>
+      </c>
+      <c r="G85">
+        <v>-0.0361301831010483</v>
+      </c>
+      <c r="H85">
+        <v>0.1507347455719026</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05078610840183818</v>
+        <v>0.05829693125559929</v>
       </c>
       <c r="C86">
-        <v>-0.03140859543007664</v>
+        <v>0.02041096488237342</v>
       </c>
       <c r="D86">
-        <v>-0.02179540311885004</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0230101363915785</v>
+      </c>
+      <c r="E86">
+        <v>0.06580932889561771</v>
+      </c>
+      <c r="F86">
+        <v>0.027020396472552</v>
+      </c>
+      <c r="G86">
+        <v>-0.0235285184441099</v>
+      </c>
+      <c r="H86">
+        <v>-0.01408659766655171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1195273338880034</v>
+        <v>0.1216462041978042</v>
       </c>
       <c r="C87">
-        <v>-0.07278213992153572</v>
+        <v>0.03827503863869125</v>
       </c>
       <c r="D87">
-        <v>-0.07314306380897063</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0726175310145383</v>
+      </c>
+      <c r="E87">
+        <v>0.02546593310925729</v>
+      </c>
+      <c r="F87">
+        <v>-0.004809823172181038</v>
+      </c>
+      <c r="G87">
+        <v>0.1264567849165862</v>
+      </c>
+      <c r="H87">
+        <v>-0.03710297306438563</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0529882387251772</v>
+        <v>0.0604207175701374</v>
       </c>
       <c r="C88">
-        <v>-0.02941941860880082</v>
+        <v>0.01888097082804884</v>
       </c>
       <c r="D88">
-        <v>-0.01938257792998947</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03246641813607812</v>
+      </c>
+      <c r="E88">
+        <v>0.02135483256059182</v>
+      </c>
+      <c r="F88">
+        <v>0.005757373335880252</v>
+      </c>
+      <c r="G88">
+        <v>0.003206406510007213</v>
+      </c>
+      <c r="H88">
+        <v>0.05439610716823768</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08312929217152146</v>
+        <v>0.09314202156102309</v>
       </c>
       <c r="C89">
-        <v>-0.06894141407480213</v>
+        <v>0.07930372152746119</v>
       </c>
       <c r="D89">
-        <v>0.3270694071431774</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3478377306938814</v>
+      </c>
+      <c r="E89">
+        <v>0.06972627113440709</v>
+      </c>
+      <c r="F89">
+        <v>0.08294955165612596</v>
+      </c>
+      <c r="G89">
+        <v>-0.02584765058196268</v>
+      </c>
+      <c r="H89">
+        <v>0.01127392126291658</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07501310051413751</v>
+        <v>0.07909678163155855</v>
       </c>
       <c r="C90">
-        <v>-0.06159318130942708</v>
+        <v>0.06786162339482568</v>
       </c>
       <c r="D90">
-        <v>0.3213292557767671</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3075177449511337</v>
+      </c>
+      <c r="E90">
+        <v>0.06082655653757551</v>
+      </c>
+      <c r="F90">
+        <v>0.0003894605209341084</v>
+      </c>
+      <c r="G90">
+        <v>-0.002557241435454576</v>
+      </c>
+      <c r="H90">
+        <v>0.003741056678486401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08587443603133295</v>
+        <v>0.08972840354966499</v>
       </c>
       <c r="C91">
-        <v>-0.05680963222844061</v>
+        <v>0.03445210370780292</v>
       </c>
       <c r="D91">
-        <v>-0.03285586735154922</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03132822936925665</v>
+      </c>
+      <c r="E91">
+        <v>0.01462986444540154</v>
+      </c>
+      <c r="F91">
+        <v>0.00597801026887904</v>
+      </c>
+      <c r="G91">
+        <v>-0.05455545224379397</v>
+      </c>
+      <c r="H91">
+        <v>0.07576525681055792</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07439507268763774</v>
+        <v>0.0780996261820455</v>
       </c>
       <c r="C92">
-        <v>-0.07232898646917878</v>
+        <v>0.08029484534910826</v>
       </c>
       <c r="D92">
-        <v>0.3425723275393692</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3446042270161838</v>
+      </c>
+      <c r="E92">
+        <v>0.04502594073902275</v>
+      </c>
+      <c r="F92">
+        <v>0.03947336791332241</v>
+      </c>
+      <c r="G92">
+        <v>0.009712731430931</v>
+      </c>
+      <c r="H92">
+        <v>0.01672835790426775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0653382916338487</v>
+        <v>0.07593629394265385</v>
       </c>
       <c r="C93">
-        <v>-0.06531304533352586</v>
+        <v>0.07841384672521332</v>
       </c>
       <c r="D93">
-        <v>0.3144129671293579</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3061374811709741</v>
+      </c>
+      <c r="E93">
+        <v>0.037056558400529</v>
+      </c>
+      <c r="F93">
+        <v>0.03909510799273685</v>
+      </c>
+      <c r="G93">
+        <v>0.01546102978707133</v>
+      </c>
+      <c r="H93">
+        <v>-0.008932877983167869</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1312859475943794</v>
+        <v>0.1265894438782067</v>
       </c>
       <c r="C94">
-        <v>-0.0568626945387834</v>
+        <v>0.02205079560155256</v>
       </c>
       <c r="D94">
-        <v>-0.04630214185690621</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04865667370860863</v>
+      </c>
+      <c r="E94">
+        <v>-0.00341148807072688</v>
+      </c>
+      <c r="F94">
+        <v>0.0212806944048326</v>
+      </c>
+      <c r="G94">
+        <v>-0.0633146632433803</v>
+      </c>
+      <c r="H94">
+        <v>0.09487014524381146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1191318177498489</v>
+        <v>0.1268256061906373</v>
       </c>
       <c r="C95">
-        <v>-0.03211238314691282</v>
+        <v>0.004131096444314997</v>
       </c>
       <c r="D95">
-        <v>-0.06029487655207678</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07085879118468419</v>
+      </c>
+      <c r="E95">
+        <v>0.01473148515809035</v>
+      </c>
+      <c r="F95">
+        <v>0.04197626683224837</v>
+      </c>
+      <c r="G95">
+        <v>0.0276758660047425</v>
+      </c>
+      <c r="H95">
+        <v>-0.06507777728156304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2128206207441894</v>
+        <v>0.2094931089709257</v>
       </c>
       <c r="C97">
-        <v>-0.04617879759380534</v>
+        <v>0.001423894318211</v>
       </c>
       <c r="D97">
-        <v>0.08737477395000921</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.09034621179595716</v>
+      </c>
+      <c r="E97">
+        <v>-0.3030434119158306</v>
+      </c>
+      <c r="F97">
+        <v>-0.8723398134606337</v>
+      </c>
+      <c r="G97">
+        <v>0.07541251575702529</v>
+      </c>
+      <c r="H97">
+        <v>0.01057395842665368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2436065711276865</v>
+        <v>0.2750455850354674</v>
       </c>
       <c r="C98">
-        <v>-0.07476695580438594</v>
+        <v>0.03377456648754133</v>
       </c>
       <c r="D98">
-        <v>-0.0499954008254299</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06013443356049039</v>
+      </c>
+      <c r="E98">
+        <v>-0.1756699101162432</v>
+      </c>
+      <c r="F98">
+        <v>0.08302055238837706</v>
+      </c>
+      <c r="G98">
+        <v>-0.2249617767526078</v>
+      </c>
+      <c r="H98">
+        <v>-0.2461383244879108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4554625070216478</v>
+        <v>0.2858382860585173</v>
       </c>
       <c r="C99">
-        <v>0.8739850248665524</v>
+        <v>-0.9343446817257663</v>
       </c>
       <c r="D99">
-        <v>0.05222598460821412</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1291183185781297</v>
+      </c>
+      <c r="E99">
+        <v>0.06637098644248915</v>
+      </c>
+      <c r="F99">
+        <v>0.04806941382053827</v>
+      </c>
+      <c r="G99">
+        <v>-0.02425132211732696</v>
+      </c>
+      <c r="H99">
+        <v>0.06497141189330184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03952336186318738</v>
+        <v>0.04787628671142214</v>
       </c>
       <c r="C101">
-        <v>-0.03123541479381551</v>
+        <v>0.02625226706100281</v>
       </c>
       <c r="D101">
-        <v>-0.00384815271364447</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.006248226486680983</v>
+      </c>
+      <c r="E101">
+        <v>0.05453377422827887</v>
+      </c>
+      <c r="F101">
+        <v>0.0003170654565053794</v>
+      </c>
+      <c r="G101">
+        <v>-0.01313380123243553</v>
+      </c>
+      <c r="H101">
+        <v>0.07708252928186396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
